--- a/config_11.24/fish_use_config.xlsx
+++ b/config_11.24/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -188,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -201,6 +213,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2562,21 +2592,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E164" sqref="E164:F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4655,141 +4687,223 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+    <row r="150" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="6">
         <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
-      <c r="C150" s="1" t="str">
+      <c r="C150" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+    <row r="151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="6">
         <f>[1]use_fish!$B151</f>
         <v>31</v>
       </c>
-      <c r="C151" s="1" t="str">
+      <c r="C151" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+    <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="6">
         <f>[1]use_fish!$B152</f>
         <v>31</v>
       </c>
-      <c r="C152" s="1" t="str">
+      <c r="C152" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="6">
         <f>[1]use_fish!$B153</f>
         <v>5</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="7">
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+    <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="6">
         <f>[1]use_fish!$B154</f>
         <v>6</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="7">
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+    <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="6">
         <f>[1]use_fish!$B155</f>
         <v>7</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="7">
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+    <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="6">
         <f>[1]use_fish!$B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="7">
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+    <row r="157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="6">
         <f>[1]use_fish!$B157</f>
         <v>9</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="7">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
+    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="9">
+        <v>13</v>
+      </c>
+      <c r="C158" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="9">
+        <v>14</v>
+      </c>
+      <c r="C159" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="9">
+        <v>15</v>
+      </c>
+      <c r="C160" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="9">
+        <v>16</v>
+      </c>
+      <c r="C161" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="9">
+        <v>17</v>
+      </c>
+      <c r="C162" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="9">
+        <v>18</v>
+      </c>
+      <c r="C163" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="9">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_11.24/fish_use_config.xlsx
+++ b/config_11.24/fish_use_config.xlsx
@@ -226,11 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2592,11 +2592,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E164" sqref="E164:F166"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4815,94 +4815,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="9">
-        <v>13</v>
-      </c>
-      <c r="C158" s="10">
+      <c r="B158" s="10">
+        <v>6</v>
+      </c>
+      <c r="C158" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="9">
-        <v>14</v>
-      </c>
-      <c r="C159" s="10">
+      <c r="B159" s="10">
+        <v>7</v>
+      </c>
+      <c r="C159" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="9">
-        <v>15</v>
-      </c>
-      <c r="C160" s="10">
+      <c r="B160" s="10">
+        <v>8</v>
+      </c>
+      <c r="C160" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="9">
-        <v>16</v>
-      </c>
-      <c r="C161" s="10">
+      <c r="B161" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="9">
-        <v>17</v>
-      </c>
-      <c r="C162" s="10">
+      <c r="B162" s="10">
+        <v>10</v>
+      </c>
+      <c r="C162" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="9">
-        <v>18</v>
-      </c>
-      <c r="C163" s="10">
+      <c r="B163" s="10">
+        <v>22</v>
+      </c>
+      <c r="C163" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>163</v>
       </c>
-      <c r="B164" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="10">
+        <v>23</v>
+      </c>
+      <c r="C164" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="10">
+        <v>24</v>
+      </c>
+      <c r="C165" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>165</v>
       </c>
-      <c r="B166" s="9">
-        <v>58</v>
+      <c r="B166" s="10">
+        <v>25</v>
+      </c>
+      <c r="C166" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="10">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
